--- a/differences_6_0.9.xlsx
+++ b/differences_6_0.9.xlsx
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2310000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2090000000000001</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0.01100000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0.06300000000000006</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.137</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.03900000000000003</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.171</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.02100000000000002</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05100000000000005</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.02200000000000002</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-0.05999999999999994</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.07399999999999995</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.114</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.05100000000000005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.03600000000000003</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.145</v>
+        <v>0.03600000000000003</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.02200000000000002</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-0.05599999999999994</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.164</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.113</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.03199999999999992</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.07599999999999996</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04599999999999993</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1033,16 +1033,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.144</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.07100000000000006</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.04899999999999999</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1073,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-0.05999999999999994</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0.09900000000000003</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.143</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02700000000000002</v>
+        <v>-0.09499999999999997</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09200000000000003</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.07699999999999996</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.116</v>
+        <v>0.06700000000000006</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.01400000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.115</v>
+        <v>0.05200000000000005</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.001000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02900000000000003</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.06699999999999995</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.102</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03500000000000003</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.006000000000000005</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1349,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.06599999999999995</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.09599999999999997</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.002000000000000002</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.07899999999999996</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1880000000000001</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.06599999999999995</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.09899999999999998</v>
+        <v>-0.107</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08200000000000002</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.07799999999999996</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.144</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>-0.1170000000000001</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.07500000000000007</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.101</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-0.04299999999999998</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.05100000000000005</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08300000000000002</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.06100000000000005</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.02699999999999997</v>
+        <v>0.118</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.07899999999999996</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.159</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1711,19 +1711,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08099999999999996</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.04099999999999998</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07099999999999995</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.08599999999999997</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1757,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06499999999999995</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05099999999999993</v>
+        <v>-0.04600000000000004</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-0.04399999999999998</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1803,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>-0.04400000000000004</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.113</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.07199999999999995</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1140000000000001</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08099999999999996</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.06599999999999995</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1962,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.106</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.04700000000000004</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -1990,16 +1990,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.04999999999999999</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0.07499999999999996</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.08299999999999996</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2045,16 +2045,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.06700000000000006</v>
+        <v>0.03799999999999992</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.05099999999999999</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.03399999999999997</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2085,16 +2085,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-0.07299999999999995</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.118</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.004000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07700000000000007</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.06699999999999995</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.08400000000000002</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2174,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.06300000000000006</v>
       </c>
       <c r="E38" t="n">
-        <v>0.06500000000000006</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.08599999999999997</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.08799999999999997</v>
       </c>
       <c r="K39" t="n">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.08500000000000002</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2275,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.07600000000000007</v>
+        <v>0.127</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.02800000000000002</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-0.03300000000000003</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03599999999999992</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.08399999999999996</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2367,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.07699999999999996</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2404,19 +2404,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.009999999999999953</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04999999999999993</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.05199999999999999</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04799999999999993</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.03700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.1060000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2496,16 +2496,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.01900000000000002</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>-0.06799999999999995</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.117</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.08099999999999996</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.09400000000000003</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.05599999999999999</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>-0.03500000000000003</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.134</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>-0.058</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.105</v>
+        <v>0.118</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.008999999999999952</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2698,13 +2698,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>-0.121</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -2729,19 +2729,19 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>-0.03800000000000003</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.08799999999999997</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.09699999999999998</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>-0.05599999999999999</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08799999999999997</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.115</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2821,16 +2821,16 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-0.05699999999999994</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.07900000000000007</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.03500000000000003</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.02399999999999991</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.05200000000000005</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -2913,13 +2913,13 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>-0.05799999999999994</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>-0.04999999999999993</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08599999999999997</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>-0.04199999999999998</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -2999,13 +2999,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>-0.08199999999999996</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -3048,16 +3048,16 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01800000000000002</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>-0.05799999999999994</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.101</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>-0.09300000000000003</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3097,19 +3097,19 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>-0.07299999999999995</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.119</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.009000000000000008</v>
+        <v>-0.02700000000000002</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3137,19 +3137,19 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.05700000000000005</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.117</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08300000000000007</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.142</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.08599999999999997</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.199</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.08099999999999996</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -3327,13 +3327,13 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.05599999999999994</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>0.09499999999999997</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3367,13 +3367,13 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06199999999999994</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.04000000000000004</v>
+        <v>-0.07699999999999996</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>-0.004000000000000004</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3419,13 +3419,13 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>-0.02100000000000002</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.167</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.04600000000000004</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.06400000000000006</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.06599999999999995</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>0.175</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.07400000000000007</v>
+        <v>0.06099999999999994</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.05199999999999999</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.02100000000000002</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.1910000000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.02400000000000002</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.067</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07400000000000007</v>
+        <v>0.139</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>0.01899999999999991</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.02699999999999991</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3710,13 +3710,13 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.05300000000000005</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.102</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.04599999999999993</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.07799999999999996</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.164</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.1599999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3885,16 +3885,16 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.07300000000000006</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>0.05399999999999994</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -3931,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.08499999999999996</v>
+        <v>0.153</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3977,13 +3977,13 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>0.07500000000000007</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03200000000000003</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>0.08499999999999996</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.09700000000000009</v>
+        <v>0.119</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -4063,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.176</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.05500000000000005</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.04299999999999993</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>0.08199999999999996</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.1779999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.138</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.03699999999999998</v>
+        <v>0.07399999999999995</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -4241,13 +4241,13 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.04499999999999993</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.03700000000000003</v>
+        <v>-0.07399999999999995</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>-0.03399999999999997</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -4299,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4339,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04999999999999999</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -4400,13 +4400,13 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>0.258</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>0.08800000000000002</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>0.1150000000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -4477,13 +4477,13 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.04599999999999993</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>0.162</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.03200000000000003</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -4575,16 +4575,16 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.04599999999999999</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.03799999999999998</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -4621,10 +4621,10 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04800000000000004</v>
+        <v>0.09399999999999997</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>-0.114</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.09599999999999997</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>0.08499999999999996</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -4707,16 +4707,16 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.02799999999999991</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.01100000000000001</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.09099999999999997</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -4765,16 +4765,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>0.04400000000000004</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -4799,16 +4799,16 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.04899999999999993</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.09799999999999998</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.03599999999999992</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.1080000000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07100000000000001</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.152</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>0.05099999999999999</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04200000000000004</v>
+        <v>0.111</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07599999999999996</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.162</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.09099999999999997</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -5035,13 +5035,13 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.161</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.05200000000000005</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -5069,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.01600000000000001</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-0.05499999999999994</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09900000000000003</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
